--- a/data/excel outputs/p-value analysis/p_values_MLP_vs_Random_Forest.xlsx
+++ b/data/excel outputs/p-value analysis/p_values_MLP_vs_Random_Forest.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,146 +607,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9.017215216596905e-13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.610419467174389e-15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.262913025914989e-17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8.202840295070639e-10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.052792607546388e-10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.738774285625832e-10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.957851500661587e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.460325657726105e-07</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.592969568123405e-15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0001187551330584871</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.164409843730472e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.47205854772984e-07</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5.278522906968855e-10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.104980418343948e-13</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,146 +633,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.938853557843373e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.928445705086238e-08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.791804769881151e-05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1446832387442525</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0587266063329086</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.256413503371835e-05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.329876800921125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.78835411318741e-05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.016379581533686e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0209917286647498</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.603811370108935e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0003950644650194238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3.216802399645117e-08</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.123877389144112e-06</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,146 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.217176067970694e-17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
